--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H2">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I2">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J2">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>100.95625</v>
+        <v>136.544502</v>
       </c>
       <c r="N2">
-        <v>302.86875</v>
+        <v>409.633506</v>
       </c>
       <c r="O2">
-        <v>0.9361599519103526</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="P2">
-        <v>0.9361599519103525</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="Q2">
-        <v>2875.1500044</v>
+        <v>359.075537363132</v>
       </c>
       <c r="R2">
-        <v>25876.3500396</v>
+        <v>3231.679836268188</v>
       </c>
       <c r="S2">
-        <v>0.4162395998137173</v>
+        <v>0.0692856700765254</v>
       </c>
       <c r="T2">
-        <v>0.4162395998137172</v>
+        <v>0.0692856700765254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H3">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I3">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J3">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.167287</v>
       </c>
       <c r="O3">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="P3">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="Q3">
-        <v>11.081120859072</v>
+        <v>1.023217585091778</v>
       </c>
       <c r="R3">
-        <v>99.730087731648</v>
+        <v>9.208958265826</v>
       </c>
       <c r="S3">
-        <v>0.001604229798378851</v>
+        <v>0.0001974356608578232</v>
       </c>
       <c r="T3">
-        <v>0.001604229798378851</v>
+        <v>0.0001974356608578232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H4">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I4">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J4">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.498858666666667</v>
+        <v>4.025396333333334</v>
       </c>
       <c r="N4">
-        <v>10.496576</v>
+        <v>12.076189</v>
       </c>
       <c r="O4">
-        <v>0.03244466153534613</v>
+        <v>0.0285405766544606</v>
       </c>
       <c r="P4">
-        <v>0.03244466153534613</v>
+        <v>0.02854057665446059</v>
       </c>
       <c r="Q4">
-        <v>99.64458377625601</v>
+        <v>10.58571623404689</v>
       </c>
       <c r="R4">
-        <v>896.8012539863041</v>
+        <v>95.27144610642202</v>
       </c>
       <c r="S4">
-        <v>0.01442568965485634</v>
+        <v>0.002042574239119408</v>
       </c>
       <c r="T4">
-        <v>0.01442568965485633</v>
+        <v>0.002042574239119408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H5">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I5">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J5">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.996608333333334</v>
+        <v>0.08217633333333334</v>
       </c>
       <c r="N5">
-        <v>8.989825000000002</v>
+        <v>0.246529</v>
       </c>
       <c r="O5">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923545</v>
       </c>
       <c r="P5">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923544</v>
       </c>
       <c r="Q5">
-        <v>85.34091215520002</v>
+        <v>0.2161017881935556</v>
       </c>
       <c r="R5">
-        <v>768.0682093968002</v>
+        <v>1.944916093742</v>
       </c>
       <c r="S5">
-        <v>0.01235492654952138</v>
+        <v>4.169807085628325E-05</v>
       </c>
       <c r="T5">
-        <v>0.01235492654952137</v>
+        <v>4.169807085628324E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>54.380033</v>
       </c>
       <c r="I6">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J6">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>100.95625</v>
+        <v>136.544502</v>
       </c>
       <c r="N6">
-        <v>302.86875</v>
+        <v>409.633506</v>
       </c>
       <c r="O6">
-        <v>0.9361599519103526</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="P6">
-        <v>0.9361599519103525</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="Q6">
-        <v>1830.001402185417</v>
+        <v>2475.098174909522</v>
       </c>
       <c r="R6">
-        <v>16470.01261966875</v>
+        <v>22275.8835741857</v>
       </c>
       <c r="S6">
-        <v>0.2649319340342239</v>
+        <v>0.4775842899605972</v>
       </c>
       <c r="T6">
-        <v>0.2649319340342238</v>
+        <v>0.4775842899605972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.380033</v>
       </c>
       <c r="I7">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J7">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.167287</v>
       </c>
       <c r="O7">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="P7">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="Q7">
         <v>7.053011731163446</v>
@@ -883,10 +883,10 @@
         <v>63.477105580471</v>
       </c>
       <c r="S7">
-        <v>0.001021074648615967</v>
+        <v>0.00136091878449815</v>
       </c>
       <c r="T7">
-        <v>0.001021074648615967</v>
+        <v>0.00136091878449815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.380033</v>
       </c>
       <c r="I8">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J8">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.498858666666667</v>
+        <v>4.025396333333334</v>
       </c>
       <c r="N8">
-        <v>10.496576</v>
+        <v>12.076189</v>
       </c>
       <c r="O8">
-        <v>0.03244466153534613</v>
+        <v>0.0285405766544606</v>
       </c>
       <c r="P8">
-        <v>0.03244466153534613</v>
+        <v>0.02854057665446059</v>
       </c>
       <c r="Q8">
-        <v>63.42268325188979</v>
+        <v>72.96706181491524</v>
       </c>
       <c r="R8">
-        <v>570.8041492670081</v>
+        <v>656.7035563342371</v>
       </c>
       <c r="S8">
-        <v>0.009181793038790626</v>
+        <v>0.01407941016669417</v>
       </c>
       <c r="T8">
-        <v>0.009181793038790624</v>
+        <v>0.01407941016669416</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>54.380033</v>
       </c>
       <c r="I9">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J9">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.996608333333334</v>
+        <v>0.08217633333333334</v>
       </c>
       <c r="N9">
-        <v>8.989825000000002</v>
+        <v>0.246529</v>
       </c>
       <c r="O9">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923545</v>
       </c>
       <c r="P9">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923544</v>
       </c>
       <c r="Q9">
-        <v>54.31855335158058</v>
+        <v>1.489583906161889</v>
       </c>
       <c r="R9">
-        <v>488.8669801642251</v>
+        <v>13.406255155457</v>
       </c>
       <c r="S9">
-        <v>0.007863775063882351</v>
+        <v>0.0002874236987335115</v>
       </c>
       <c r="T9">
-        <v>0.007863775063882349</v>
+        <v>0.0002874236987335115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H10">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I10">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J10">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.95625</v>
+        <v>136.544502</v>
       </c>
       <c r="N10">
-        <v>302.86875</v>
+        <v>409.633506</v>
       </c>
       <c r="O10">
-        <v>0.9361599519103526</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="P10">
-        <v>0.9361599519103525</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="Q10">
-        <v>598.9729264687501</v>
+        <v>1031.000608808146</v>
       </c>
       <c r="R10">
-        <v>5390.75633821875</v>
+        <v>9279.005479273315</v>
       </c>
       <c r="S10">
-        <v>0.08671417172358356</v>
+        <v>0.198937439612706</v>
       </c>
       <c r="T10">
-        <v>0.08671417172358355</v>
+        <v>0.198937439612706</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H11">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I11">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J11">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.167287</v>
       </c>
       <c r="O11">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="P11">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="Q11">
-        <v>2.308502644855</v>
+        <v>2.937927659789222</v>
       </c>
       <c r="R11">
-        <v>20.776523803695</v>
+        <v>26.441348938103</v>
       </c>
       <c r="S11">
-        <v>0.0003342052468889798</v>
+        <v>0.0005668898751490233</v>
       </c>
       <c r="T11">
-        <v>0.0003342052468889797</v>
+        <v>0.0005668898751490235</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H12">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I12">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J12">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.498858666666667</v>
+        <v>4.025396333333334</v>
       </c>
       <c r="N12">
-        <v>10.496576</v>
+        <v>12.076189</v>
       </c>
       <c r="O12">
-        <v>0.03244466153534613</v>
+        <v>0.0285405766544606</v>
       </c>
       <c r="P12">
-        <v>0.03244466153534613</v>
+        <v>0.02854057665446059</v>
       </c>
       <c r="Q12">
-        <v>20.75871097504001</v>
+        <v>30.39438431846012</v>
       </c>
       <c r="R12">
-        <v>186.82839877536</v>
+        <v>273.549458866141</v>
       </c>
       <c r="S12">
-        <v>0.003005268433186474</v>
+        <v>0.005864769567797817</v>
       </c>
       <c r="T12">
-        <v>0.003005268433186474</v>
+        <v>0.005864769567797817</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H13">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I13">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J13">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.996608333333334</v>
+        <v>0.08217633333333334</v>
       </c>
       <c r="N13">
-        <v>8.989825000000002</v>
+        <v>0.246529</v>
       </c>
       <c r="O13">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923545</v>
       </c>
       <c r="P13">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923544</v>
       </c>
       <c r="Q13">
-        <v>17.77886225862501</v>
+        <v>0.6204852517334445</v>
       </c>
       <c r="R13">
-        <v>160.009760327625</v>
+        <v>5.584367265601</v>
       </c>
       <c r="S13">
-        <v>0.002573871450306328</v>
+        <v>0.0001197261633433882</v>
       </c>
       <c r="T13">
-        <v>0.002573871450306328</v>
+        <v>0.0001197261633433882</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H14">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I14">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J14">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>100.95625</v>
+        <v>136.544502</v>
       </c>
       <c r="N14">
-        <v>302.86875</v>
+        <v>409.633506</v>
       </c>
       <c r="O14">
-        <v>0.9361599519103526</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="P14">
-        <v>0.9361599519103525</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="Q14">
-        <v>1162.3442371125</v>
+        <v>1152.133105293236</v>
       </c>
       <c r="R14">
-        <v>10461.0981340125</v>
+        <v>10369.19794763912</v>
       </c>
       <c r="S14">
-        <v>0.1682742463388278</v>
+        <v>0.2223106447289439</v>
       </c>
       <c r="T14">
-        <v>0.1682742463388278</v>
+        <v>0.2223106447289439</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H15">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I15">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J15">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.167287</v>
       </c>
       <c r="O15">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="P15">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="Q15">
-        <v>4.479793037434</v>
+        <v>3.283105450066445</v>
       </c>
       <c r="R15">
-        <v>40.318137336906</v>
+        <v>29.547949050598</v>
       </c>
       <c r="S15">
-        <v>0.0006485460787423969</v>
+        <v>0.0006334938957696363</v>
       </c>
       <c r="T15">
-        <v>0.0006485460787423969</v>
+        <v>0.0006334938957696363</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H16">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I16">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J16">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.498858666666667</v>
+        <v>4.025396333333334</v>
       </c>
       <c r="N16">
-        <v>10.496576</v>
+        <v>12.076189</v>
       </c>
       <c r="O16">
-        <v>0.03244466153534613</v>
+        <v>0.0285405766544606</v>
       </c>
       <c r="P16">
-        <v>0.03244466153534613</v>
+        <v>0.02854057665446059</v>
       </c>
       <c r="Q16">
-        <v>40.28357043443201</v>
+        <v>33.96542745865623</v>
       </c>
       <c r="R16">
-        <v>362.5521339098881</v>
+        <v>305.6888471279061</v>
       </c>
       <c r="S16">
-        <v>0.005831910408512692</v>
+        <v>0.006553822680849209</v>
       </c>
       <c r="T16">
-        <v>0.005831910408512692</v>
+        <v>0.006553822680849208</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H17">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I17">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J17">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.996608333333334</v>
+        <v>0.08217633333333334</v>
       </c>
       <c r="N17">
-        <v>8.989825000000002</v>
+        <v>0.246529</v>
       </c>
       <c r="O17">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923545</v>
       </c>
       <c r="P17">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923544</v>
       </c>
       <c r="Q17">
-        <v>34.50098856815001</v>
+        <v>0.693386205362889</v>
       </c>
       <c r="R17">
-        <v>310.5088971133501</v>
+        <v>6.240475848266</v>
       </c>
       <c r="S17">
-        <v>0.004994757717965136</v>
+        <v>0.0001337928175591715</v>
       </c>
       <c r="T17">
-        <v>0.004994757717965136</v>
+        <v>0.0001337928175591715</v>
       </c>
     </row>
   </sheetData>
